--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipC\InputData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="Key to Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Key to Top Level Folders" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="442">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -33,12 +38,6 @@
     <t>add-outputs</t>
   </si>
   <si>
-    <t>BGRC</t>
-  </si>
-  <si>
-    <t>BAU GDP-Related Calculations</t>
-  </si>
-  <si>
     <t>DR</t>
   </si>
   <si>
@@ -150,9 +149,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>CCEL</t>
-  </si>
-  <si>
     <t>CPbE</t>
   </si>
   <si>
@@ -162,15 +158,9 @@
     <t>CCS Costs</t>
   </si>
   <si>
-    <t>BAU GDP, BAU Economy Wide CO2 Emissions Intensity</t>
-  </si>
-  <si>
     <t>Capital Cost of Eqpt to Sequester One Ton of CO2 per Year, CCS Total O&amp;M Cost per Ton Sequestered, Energy Use per Ton CO2 Sequestered</t>
   </si>
   <si>
-    <t>CCS Capital Equipment Lifetime</t>
-  </si>
-  <si>
     <t>CCS Percentages by Entity</t>
   </si>
   <si>
@@ -312,9 +302,6 @@
     <t>BAU Subsidies</t>
   </si>
   <si>
-    <t>BAU Subsidy for Thermal Fuels per Energy Unit Produced, BAU Subsidy per Unit Electricity Output</t>
-  </si>
-  <si>
     <t>GWP by Pollutant by Timeframe</t>
   </si>
   <si>
@@ -342,15 +329,6 @@
     <t>PERAC</t>
   </si>
   <si>
-    <t>PPRiEYFUfERoIF</t>
-  </si>
-  <si>
-    <t>PPRiEYFUfICaWHR</t>
-  </si>
-  <si>
-    <t>PPRiEYFUfIIaIoE</t>
-  </si>
-  <si>
     <t>RIFF</t>
   </si>
   <si>
@@ -366,24 +344,12 @@
     <t>Elasticities of Production</t>
   </si>
   <si>
-    <t>Elasticity of Production wrt Fuel Cost, Perc Change in Production per Unit Carbon Tax due to Nonfuel Impacts, Elasticity of GDP wrt Fuel Cost</t>
-  </si>
-  <si>
     <t>Foreign Leakage Rate by Industry</t>
   </si>
   <si>
     <t>Process Emissions Reductions and Costs</t>
   </si>
   <si>
-    <t>Potential Perc Reduction in End Year Fuel Use from Early Retirement of Inefficient Facilities</t>
-  </si>
-  <si>
-    <t>Potential Perc Reduction in End Year Fuel Use from Increased Cogen and Waste Heat Recovery</t>
-  </si>
-  <si>
-    <t>Potential Perc Reduction in End Year Fuel Use from Improved Installation and Integration of Eqpt</t>
-  </si>
-  <si>
     <t>Recipient Industrial Fuel Fractions</t>
   </si>
   <si>
@@ -402,9 +368,6 @@
     <t>trans</t>
   </si>
   <si>
-    <t>AADTbVT</t>
-  </si>
-  <si>
     <t>AVL</t>
   </si>
   <si>
@@ -432,9 +395,6 @@
     <t>PTFURfE</t>
   </si>
   <si>
-    <t>Average Annual Dist Traveled by Vehicle Type</t>
-  </si>
-  <si>
     <t>Avg Vehicle Lifetime</t>
   </si>
   <si>
@@ -498,12 +458,6 @@
     <t>Perc Energy Use Reduction for Retrofit Components</t>
   </si>
   <si>
-    <t>CPPCS</t>
-  </si>
-  <si>
-    <t>Clean Power Plan Compliance Schedule</t>
-  </si>
-  <si>
     <t>Importance to Update for New Country</t>
   </si>
   <si>
@@ -519,9 +473,6 @@
     <t>n/a (policy lever)</t>
   </si>
   <si>
-    <t>n/a (U.S. only)</t>
-  </si>
-  <si>
     <t>high (only if applicable to new country)</t>
   </si>
   <si>
@@ -855,12 +806,6 @@
     <t>BCpUC</t>
   </si>
   <si>
-    <t>BAU Battery Storage Capacity</t>
-  </si>
-  <si>
-    <t>BBSC</t>
-  </si>
-  <si>
     <t>Perc Decline in Battery Cost per Doubling of Capacity</t>
   </si>
   <si>
@@ -906,30 +851,15 @@
     <t>Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
   <si>
-    <t>DpOCU</t>
-  </si>
-  <si>
-    <t>Dollars per Output Currency Unit</t>
-  </si>
-  <si>
     <t>BAU Expected Capacity Factors</t>
   </si>
   <si>
-    <t>MPCFR</t>
-  </si>
-  <si>
-    <t>Maximum Possible Capacity Factor Reduction</t>
-  </si>
-  <si>
     <t>Start Year Electricity Generation Capacity, Fraction of Peakers that Provide Flexibility Points</t>
   </si>
   <si>
     <t>low, except medium for BAU Transmission Connectivity Coefficient</t>
   </si>
   <si>
-    <t>Flexibility Points Provided Per Unit Peaker Capacity, Flexibility Points Provided per Unit Pumped Hydro, Flexibility Points Provided per Unit Battery Storage, Flexibility Points Provided per Unit Demand Response Capacity, FPC Flexibility Points Provided per Unit Transmission Capacity Across Modeled Region Border, BAU Transmission Connectivity Coefficient, FPC Curtailment Second Order Coeff, FPC Curtailment First Order Coeff, FPC Curtailment Zeroth Order Coeff, Target Maximum Fraction of Flexibility Points Used</t>
-  </si>
-  <si>
     <t>BRPSPTY</t>
   </si>
   <si>
@@ -1041,12 +971,6 @@
     <t>Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
   <si>
-    <t>DpOCUfCC</t>
-  </si>
-  <si>
-    <t>Dollars per Output Currency Unit for Cost Curve</t>
-  </si>
-  <si>
     <t>CO2 Sequestered per Unit Land Area per Year by Policy</t>
   </si>
   <si>
@@ -1188,12 +1112,6 @@
     <t>n/a (unlikely to apply to most regions)</t>
   </si>
   <si>
-    <t>CFEpLC</t>
-  </si>
-  <si>
-    <t>Carbon Free Energy per LCFS Credit</t>
-  </si>
-  <si>
     <t>BVTStL</t>
   </si>
   <si>
@@ -1230,9 +1148,6 @@
     <t>Passenger Miles per Passenger Distance Output Unit, Freight Ton Miles per Freight Distance Output Unit</t>
   </si>
   <si>
-    <t>BTU Hard Coal per Coal Output Unit, BTU Natural Gas per Natural Gas Output Unit, Liquid Fuel BTU Conversion Factors, BTU Lignite per Coal Output Unit, Vehicle Fuel Economy Unit Conversion Factors</t>
-  </si>
-  <si>
     <t>very high</t>
   </si>
   <si>
@@ -1282,12 +1197,162 @@
   </si>
   <si>
     <t>Potential Perc Reduction in Proc Emis from Cement, Mass CO2e Avoidable by Marginal Cost</t>
+  </si>
+  <si>
+    <t>BIEfIE</t>
+  </si>
+  <si>
+    <t>Boolean Include Emissions from Imported Electricity</t>
+  </si>
+  <si>
+    <t>BAU Subsidy for Thermal Fuels per Energy Unit Produced, BAU Subsidy per Unit Electricity Output, BAU Subsidy per Unit Electricity Capacity Built</t>
+  </si>
+  <si>
+    <t>Elasticity of Production wrt Fuel Cost, Perc Change in Production per Unit Carbon Tax due to Nonfuel Impacts</t>
+  </si>
+  <si>
+    <t>FoTCAMRBtPF</t>
+  </si>
+  <si>
+    <t>Fraction of Transmission Capacity Across Modeled Region Border that Provides Flexibility</t>
+  </si>
+  <si>
+    <t>medium (relies on BNVFE)</t>
+  </si>
+  <si>
+    <t>BCSG</t>
+  </si>
+  <si>
+    <t>BAU CO2 Sequestered Globally</t>
+  </si>
+  <si>
+    <t>BGSaWC</t>
+  </si>
+  <si>
+    <t>BAU Global Solar and Wind Capacities</t>
+  </si>
+  <si>
+    <t>BGBSC</t>
+  </si>
+  <si>
+    <t>BAU Global Battery Storage Capacity</t>
+  </si>
+  <si>
+    <t>BGrBSC</t>
+  </si>
+  <si>
+    <t>BAU Grid Battery Storage Capacity</t>
+  </si>
+  <si>
+    <t>endo-learn</t>
+  </si>
+  <si>
+    <t>Endogenous Learning</t>
+  </si>
+  <si>
+    <t>GBEtPR</t>
+  </si>
+  <si>
+    <t>Grid Battery Energy to Power Ratio</t>
+  </si>
+  <si>
+    <t>BCbVT</t>
+  </si>
+  <si>
+    <t>Battery Capacity by Vehicle Type</t>
+  </si>
+  <si>
+    <t>PPRiFUfERoIF</t>
+  </si>
+  <si>
+    <t>PPRiFUfICaWHR</t>
+  </si>
+  <si>
+    <t>PPRiFUfIIaIoE</t>
+  </si>
+  <si>
+    <t>Potential Perc Reduction in Fuel Use from Early Retirement of Inefficient Facilities</t>
+  </si>
+  <si>
+    <t>Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
+  </si>
+  <si>
+    <t>Potential Perc Reduction in Fuel Use from Improved Installation and Integration of Eqpt</t>
+  </si>
+  <si>
+    <t>BAADTbVT</t>
+  </si>
+  <si>
+    <t>BAU Average Annual Dist Traveled by Vehicle Type</t>
+  </si>
+  <si>
+    <t>CIRbTF</t>
+  </si>
+  <si>
+    <t>Carbon Intensity Ratios by Transportation Fuel</t>
+  </si>
+  <si>
+    <t>n/a (unless overriding model calcs)</t>
+  </si>
+  <si>
+    <t>DRCo</t>
+  </si>
+  <si>
+    <t>Demand Response Costs</t>
+  </si>
+  <si>
+    <t>Annual Cost per Unit Demand Response Capacity, Share of DR by Provider</t>
+  </si>
+  <si>
+    <t>SYSoCCtaSC</t>
+  </si>
+  <si>
+    <t>Start Year Shares of Capacity Costs that are Soft Costs</t>
+  </si>
+  <si>
+    <t>BTU per Large Fuel Output Unit, BTU per Small Fuel Output Unit, Vehicle Fuel Economy Unit Conversion Factors</t>
+  </si>
+  <si>
+    <t>OCCF</t>
+  </si>
+  <si>
+    <t>Output Currency Conversion Factors</t>
+  </si>
+  <si>
+    <t>Dollars per Large Output Currency Unit, Dollars per Small Output Currency Unit</t>
+  </si>
+  <si>
+    <t>GCApLC</t>
+  </si>
+  <si>
+    <t>Grams CO2e Avoided per LCFS Credit</t>
+  </si>
+  <si>
+    <t>ICtPSFfL</t>
+  </si>
+  <si>
+    <t>Incremental Cost to Produce Substitute Fuel for LCFS</t>
+  </si>
+  <si>
+    <t>Flexibility Points Provided Per Unit Peaker Capacity, Flexibility Points Provided per Unit Pumped Hydro, Flexibility Points Provided per Unit Battery Storage, Flexibility Points Provided per Unit Demand Response Capacity, FPC Flexibility Points Provided per Unit Transmission Capacity Across Modeled Region Border, BAU Transmission Connectivity Coefficient, Curtailment Third Order Coeff, Curtailment Second Order Coeff, Curtailment First Order Coeff, Curtailment Zeroth Order Coeff, Target Maximum Fraction of Flexibility Points Used</t>
+  </si>
+  <si>
+    <t>Separately Regulated Pollutants by Vehicle Type</t>
+  </si>
+  <si>
+    <t>SRPbVT</t>
+  </si>
+  <si>
+    <t>FPCbS</t>
+  </si>
+  <si>
+    <t>Flexibility Points Consumed by Source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1415,6 +1480,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1462,7 +1530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1497,7 +1565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1708,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1717,319 +1785,319 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="C26" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2040,9 +2108,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2051,7 +2119,7 @@
   <cols>
     <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="2"/>
@@ -2071,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2079,16 +2147,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>163</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2096,13 +2161,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>167</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2110,147 +2175,147 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>164</v>
+        <v>223</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>165</v>
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>225</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>163</v>
+      <c r="E9" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>165</v>
+        <v>232</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>164</v>
+        <v>230</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -2258,13 +2323,13 @@
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -2272,55 +2337,55 @@
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>165</v>
+      <c r="E15" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>164</v>
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -2328,13 +2393,13 @@
       <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2343,1850 +2408,1968 @@
         <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>165</v>
+      <c r="E23" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>368</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>164</v>
+        <v>369</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>165</v>
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>344</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>346</v>
+        <v>55</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>164</v>
+        <v>56</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>163</v>
+        <v>217</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>163</v>
+        <v>259</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>165</v>
+        <v>72</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>413</v>
+        <v>275</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>163</v>
+        <v>276</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>278</v>
+        <v>405</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>164</v>
+        <v>406</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>165</v>
+        <v>322</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>164</v>
+        <v>74</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>351</v>
+        <v>213</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>168</v>
+        <v>77</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>304</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>424</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>235</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>165</v>
+        <v>237</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>166</v>
+        <v>80</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>254</v>
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>163</v>
+        <v>437</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>166</v>
+        <v>219</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>405</v>
+        <v>82</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>163</v>
+        <v>304</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>164</v>
+        <v>83</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>165</v>
+        <v>221</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>164</v>
+        <v>84</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>164</v>
+        <v>270</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>164</v>
+        <v>300</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>164</v>
+        <v>234</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>324</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>326</v>
+        <v>85</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>323</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>251</v>
+        <v>403</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>401</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>165</v>
+        <v>402</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>409</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>427</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>165</v>
+        <v>428</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>327</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>405</v>
+        <v>92</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>165</v>
+        <v>327</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>165</v>
+        <v>303</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>165</v>
+        <v>104</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>394</v>
+        <v>241</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D96" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>165</v>
+        <v>285</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>330</v>
+        <v>413</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>405</v>
+        <v>417</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>332</v>
+        <v>415</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>165</v>
+        <v>418</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>164</v>
+        <v>306</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>163</v>
+        <v>308</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>405</v>
+        <v>310</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>164</v>
+        <v>316</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E111" s="7" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>315</v>
+        <v>141</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>163</v>
+        <v>377</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>392</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>164</v>
+        <v>393</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>165</v>
+        <v>289</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>357</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>163</v>
+        <v>124</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>361</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>163</v>
+        <v>125</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>165</v>
+        <v>420</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E122" s="6" t="s">
         <v>382</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>164</v>
+        <v>350</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>389</v>
+      <c r="A125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>164</v>
+        <v>335</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>353</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>142</v>
+        <v>354</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>143</v>
+        <v>339</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>134</v>
+        <v>363</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>144</v>
+        <v>364</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>163</v>
+      <c r="A131" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>389</v>
+        <v>357</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>369</v>
+      <c r="E134" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>164</v>
+        <v>130</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>164</v>
+        <v>434</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>164</v>
+        <v>361</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>355</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>348</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>165</v>
+        <v>359</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>165</v>
+        <v>371</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4197,7 +4380,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4215,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,103 +4406,111 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipC\InputData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730"/>
   </bookViews>
@@ -545,18 +540,6 @@
     <t>at least one output variable and for which leaving U.S. data in place would result in large</t>
   </si>
   <si>
-    <t>inaccuracies.  For example, "BAU Fleet Fuel Use" is of high importance, because different</t>
-  </si>
-  <si>
-    <t>countries have different size vehicle fleets, and the results of most variables in the</t>
-  </si>
-  <si>
-    <t>transportation sector will be significantly wrong if these data are not updated to represent</t>
-  </si>
-  <si>
-    <t>the modeled country.</t>
-  </si>
-  <si>
     <t>Medium-importance variables are those that are likely to be different in non-U.S countries,</t>
   </si>
   <si>
@@ -1347,12 +1330,24 @@
   </si>
   <si>
     <t>Flexibility Points Consumed by Source</t>
+  </si>
+  <si>
+    <t>inaccuracies.  For example, in the buildings sector, "BAU Components Energy Use" is of</t>
+  </si>
+  <si>
+    <t>different climate conditions, so the results of most variables in the buildings sector will</t>
+  </si>
+  <si>
+    <t>be significantly wrong if these data are not updated to represent the modeled country.</t>
+  </si>
+  <si>
+    <t>high importance, because different countries have different numbers of buildings and</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1530,7 +1525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1565,7 +1560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1800,12 +1795,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1868,40 +1863,40 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>174</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>175</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>176</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,42 +1904,42 @@
         <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,152 +1947,152 @@
         <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2107,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>148</v>
@@ -2209,7 +2204,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2217,13 +2212,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>146</v>
@@ -2262,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>147</v>
@@ -2276,10 +2271,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>148</v>
@@ -2346,10 +2341,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>148</v>
@@ -2458,13 +2453,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2520,21 +2515,21 @@
     </row>
     <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -2565,10 +2560,10 @@
         <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>146</v>
@@ -2607,13 +2602,13 @@
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2621,10 +2616,10 @@
         <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>147</v>
@@ -2635,10 +2630,10 @@
         <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>146</v>
@@ -2663,10 +2658,10 @@
         <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>147</v>
@@ -2677,10 +2672,10 @@
         <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>148</v>
@@ -2691,10 +2686,10 @@
         <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>146</v>
@@ -2719,10 +2714,10 @@
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>150</v>
@@ -2733,10 +2728,10 @@
         <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>148</v>
@@ -2747,13 +2742,13 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>146</v>
@@ -2792,10 +2787,10 @@
         <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>146</v>
@@ -2806,10 +2801,10 @@
         <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>146</v>
@@ -2868,10 +2863,10 @@
         <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>146</v>
@@ -2882,13 +2877,13 @@
         <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>147</v>
@@ -2899,13 +2894,13 @@
         <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>146</v>
@@ -2930,10 +2925,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>147</v>
@@ -2950,10 +2945,10 @@
         <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,10 +2956,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>147</v>
@@ -2975,10 +2970,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>149</v>
@@ -2989,13 +2984,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3017,10 +3012,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>147</v>
@@ -3045,10 +3040,10 @@
         <v>57</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>147</v>
@@ -3059,10 +3054,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>147</v>
@@ -3087,10 +3082,10 @@
         <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>146</v>
@@ -3101,10 +3096,10 @@
         <v>57</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>147</v>
@@ -3115,16 +3110,16 @@
         <v>57</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3132,10 +3127,10 @@
         <v>57</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>148</v>
@@ -3146,16 +3141,16 @@
         <v>57</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="E71" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3163,10 +3158,10 @@
         <v>57</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>146</v>
@@ -3188,13 +3183,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>147</v>
@@ -3202,13 +3197,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>147</v>
@@ -3216,13 +3211,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>147</v>
@@ -3230,13 +3225,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>147</v>
@@ -3244,13 +3239,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>147</v>
@@ -3258,13 +3253,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>147</v>
@@ -3272,13 +3267,13 @@
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>147</v>
@@ -3286,13 +3281,13 @@
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>147</v>
@@ -3300,13 +3295,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>147</v>
@@ -3337,7 +3332,7 @@
         <v>92</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>146</v>
@@ -3348,10 +3343,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>146</v>
@@ -3393,13 +3388,13 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3413,7 +3408,7 @@
         <v>104</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3421,10 +3416,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>148</v>
@@ -3435,10 +3430,10 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>148</v>
@@ -3469,7 +3464,7 @@
         <v>106</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>148</v>
@@ -3494,10 +3489,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>147</v>
@@ -3514,10 +3509,10 @@
         <v>108</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3525,10 +3520,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>147</v>
@@ -3539,10 +3534,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>148</v>
@@ -3553,10 +3548,10 @@
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>148</v>
@@ -3567,10 +3562,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>147</v>
@@ -3587,7 +3582,7 @@
         <v>109</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>147</v>
@@ -3612,10 +3607,10 @@
         <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>148</v>
@@ -3632,7 +3627,7 @@
         <v>140</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3640,10 +3635,10 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>148</v>
@@ -3654,10 +3649,10 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>146</v>
@@ -3668,10 +3663,10 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>148</v>
@@ -3682,10 +3677,10 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>147</v>
@@ -3710,10 +3705,10 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>146</v>
@@ -3724,13 +3719,13 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3749,44 +3744,44 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E114" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,13 +3803,13 @@
         <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3822,13 +3817,13 @@
         <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3864,10 +3859,10 @@
         <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>146</v>
@@ -3878,10 +3873,10 @@
         <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>146</v>
@@ -3892,10 +3887,10 @@
         <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>146</v>
@@ -3906,13 +3901,13 @@
         <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,10 +3915,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>146</v>
@@ -3934,10 +3929,10 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>146</v>
@@ -3948,10 +3943,10 @@
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>148</v>
@@ -3962,13 +3957,13 @@
         <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,10 +3971,10 @@
         <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>148</v>
@@ -3990,10 +3985,10 @@
         <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>147</v>
@@ -4004,13 +3999,13 @@
         <v>114</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4018,10 +4013,10 @@
         <v>114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>147</v>
@@ -4102,13 +4097,13 @@
         <v>114</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,10 +4111,10 @@
         <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>148</v>
@@ -4130,13 +4125,13 @@
         <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4144,10 +4139,10 @@
         <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>148</v>
@@ -4158,13 +4153,13 @@
         <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,10 +4181,10 @@
         <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>147</v>
@@ -4214,10 +4209,10 @@
         <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>147</v>
@@ -4228,13 +4223,13 @@
         <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4242,10 +4237,10 @@
         <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>148</v>
@@ -4256,10 +4251,10 @@
         <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>147</v>
@@ -4270,10 +4265,10 @@
         <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>148</v>
@@ -4284,13 +4279,13 @@
         <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,10 +4293,10 @@
         <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>148</v>
@@ -4318,7 +4313,7 @@
         <v>135</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>148</v>
@@ -4329,10 +4324,10 @@
         <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>148</v>
@@ -4343,13 +4338,13 @@
         <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>148</v>
@@ -4360,13 +4355,13 @@
         <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>148</v>
@@ -4419,10 +4414,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4446,15 +4441,15 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,7 +4465,7 @@
         <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4483,10 +4478,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4502,7 +4497,7 @@
         <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313BF74-6C95-4A53-9481-CB1633F44C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F66C7-72A0-452A-AFEB-3DD235E110CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2400" windowWidth="29940" windowHeight="20805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="3690" windowWidth="43200" windowHeight="17235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="Key to Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Key to Top Level Folders" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="686">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -844,6 +844,12 @@
     <t>BAU EV Subsidy Percentage</t>
   </si>
   <si>
+    <t>BMRESP</t>
+  </si>
+  <si>
+    <t>BAU Minimum Required EV Sales Percentage</t>
+  </si>
+  <si>
     <t>SYVbT</t>
   </si>
   <si>
@@ -2084,27 +2090,6 @@
   </si>
   <si>
     <t>Quantization Size for Health Outcomes</t>
-  </si>
-  <si>
-    <t>VSbS</t>
-  </si>
-  <si>
-    <t>Vehicle Shares by Subregion</t>
-  </si>
-  <si>
-    <t>If you don't wish to consider sub-regional ZEV mandates, you do not need a data source for this variable.  See the "About" tab of this variable for details.</t>
-  </si>
-  <si>
-    <t>BRZSPbS</t>
-  </si>
-  <si>
-    <t>BAU Required ZEV Sales Percentage by Subregion</t>
-  </si>
-  <si>
-    <t>VTQaZ</t>
-  </si>
-  <si>
-    <t>Vehicle Technologies Qualifying as ZEVs</t>
   </si>
 </sst>
 </file>
@@ -2724,40 +2709,40 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,44 +2833,44 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,11 +2949,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,13 +2982,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>111</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3011,10 +2996,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3022,7 +3007,7 @@
         <v>112</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3030,16 +3015,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,10 +3032,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>114</v>
@@ -3075,16 +3060,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3129,7 +3114,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3160,10 +3145,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,13 +3156,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>114</v>
@@ -3208,7 +3193,7 @@
         <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>113</v>
@@ -3303,10 +3288,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>114</v>
@@ -3323,10 +3308,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3354,10 +3339,10 @@
         <v>33</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3393,16 +3378,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3410,16 +3395,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3427,10 +3412,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>113</v>
@@ -3441,10 +3426,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>114</v>
@@ -3455,13 +3440,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3469,10 +3454,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>113</v>
@@ -3483,16 +3468,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3500,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
@@ -3519,13 +3504,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>114</v>
@@ -3539,7 +3524,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>38</v>
@@ -3553,13 +3538,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="18" t="s">
@@ -3586,10 +3571,10 @@
         <v>196</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
@@ -3597,148 +3582,148 @@
         <v>155</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>202</v>
@@ -3750,35 +3735,35 @@
         <v>204</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>114</v>
@@ -3786,34 +3771,34 @@
     </row>
     <row r="51" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="6" t="s">
         <v>204</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -3821,7 +3806,7 @@
         <v>155</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,10 +3856,10 @@
         <v>39</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>113</v>
@@ -3885,18 +3870,18 @@
         <v>39</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3910,7 +3895,7 @@
         <v>176</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3932,10 +3917,10 @@
         <v>44</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>112</v>
@@ -3952,10 +3937,10 @@
         <v>57</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4011,10 +3996,10 @@
         <v>198</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4073,10 +4058,10 @@
         <v>60</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4132,7 +4117,7 @@
         <v>62</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>114</v>
@@ -4143,10 +4128,10 @@
         <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>114</v>
@@ -4157,16 +4142,16 @@
         <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>115</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,10 +4159,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>113</v>
@@ -4197,7 +4182,7 @@
         <v>115</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4222,10 +4207,10 @@
         <v>44</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>114</v>
@@ -4236,13 +4221,13 @@
         <v>44</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>113</v>
@@ -4259,7 +4244,7 @@
         <v>191</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>112</v>
@@ -4270,13 +4255,13 @@
         <v>44</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>114</v>
@@ -4287,16 +4272,16 @@
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4304,10 +4289,10 @@
         <v>44</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>114</v>
@@ -4318,13 +4303,13 @@
         <v>44</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4332,10 +4317,10 @@
         <v>44</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>114</v>
@@ -4346,10 +4331,10 @@
         <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>113</v>
@@ -4366,7 +4351,7 @@
         <v>64</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>222</v>
@@ -4377,10 +4362,10 @@
         <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>113</v>
@@ -4391,10 +4376,10 @@
         <v>44</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>113</v>
@@ -4405,13 +4390,13 @@
         <v>44</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>112</v>
@@ -4431,7 +4416,7 @@
         <v>115</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4467,10 +4452,10 @@
         <v>44</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>113</v>
@@ -4490,7 +4475,7 @@
         <v>115</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4526,10 +4511,10 @@
         <v>44</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>113</v>
@@ -4549,7 +4534,7 @@
         <v>242</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4557,13 +4542,13 @@
         <v>44</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>113</v>
@@ -4574,10 +4559,10 @@
         <v>44</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>113</v>
@@ -4588,10 +4573,10 @@
         <v>44</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>113</v>
@@ -4647,31 +4632,31 @@
         <v>44</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>113</v>
@@ -4679,13 +4664,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>113</v>
@@ -4693,13 +4678,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>113</v>
@@ -4707,13 +4692,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>113</v>
@@ -4721,13 +4706,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>113</v>
@@ -4735,13 +4720,13 @@
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>114</v>
@@ -4749,7 +4734,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>208</v>
@@ -4763,7 +4748,7 @@
     </row>
     <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>209</v>
@@ -4777,7 +4762,7 @@
     </row>
     <row r="116" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>225</v>
@@ -4797,10 +4782,10 @@
         <v>68</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>112</v>
@@ -4811,13 +4796,13 @@
         <v>68</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>112</v>
@@ -4828,10 +4813,10 @@
         <v>68</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>112</v>
@@ -4848,7 +4833,7 @@
         <v>72</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>112</v>
@@ -4859,10 +4844,10 @@
         <v>68</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>114</v>
@@ -4873,10 +4858,10 @@
         <v>68</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>112</v>
@@ -4887,13 +4872,13 @@
         <v>68</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>114</v>
@@ -4913,7 +4898,7 @@
         <v>155</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4921,10 +4906,10 @@
         <v>68</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>114</v>
@@ -4935,16 +4920,16 @@
         <v>68</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4952,16 +4937,16 @@
         <v>68</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4969,16 +4954,16 @@
         <v>68</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5003,13 +4988,13 @@
         <v>68</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>113</v>
@@ -5020,10 +5005,10 @@
         <v>68</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>112</v>
@@ -5034,16 +5019,16 @@
         <v>68</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5051,10 +5036,10 @@
         <v>68</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F133" s="19" t="s">
         <v>112</v>
@@ -5062,16 +5047,16 @@
     </row>
     <row r="134" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="19" t="s">
@@ -5081,13 +5066,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>114</v>
@@ -5095,13 +5080,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>113</v>
@@ -5109,13 +5094,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>113</v>
@@ -5123,16 +5108,16 @@
     </row>
     <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>113</v>
@@ -5140,13 +5125,13 @@
     </row>
     <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>113</v>
@@ -5154,47 +5139,47 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
@@ -5214,7 +5199,7 @@
         <v>244</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5222,16 +5207,16 @@
         <v>76</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5248,10 +5233,10 @@
         <v>243</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5259,10 +5244,10 @@
         <v>76</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>114</v>
@@ -5287,10 +5272,10 @@
         <v>76</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>114</v>
@@ -5307,10 +5292,10 @@
         <v>81</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5318,16 +5303,16 @@
         <v>76</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>115</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5335,10 +5320,10 @@
         <v>76</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>113</v>
@@ -5349,10 +5334,10 @@
         <v>76</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>114</v>
@@ -5383,10 +5368,10 @@
         <v>82</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5408,10 +5393,10 @@
         <v>76</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>114</v>
@@ -5422,10 +5407,10 @@
         <v>76</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>114</v>
@@ -5436,10 +5421,10 @@
         <v>76</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>113</v>
@@ -5450,10 +5435,10 @@
         <v>76</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>114</v>
@@ -5464,10 +5449,10 @@
         <v>76</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>113</v>
@@ -5478,10 +5463,10 @@
         <v>76</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>113</v>
@@ -5492,10 +5477,10 @@
         <v>76</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
@@ -5506,16 +5491,16 @@
     </row>
     <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>112</v>
@@ -5523,13 +5508,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>112</v>
@@ -5537,13 +5522,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>112</v>
@@ -5551,13 +5536,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>112</v>
@@ -5565,13 +5550,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>112</v>
@@ -5579,16 +5564,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>112</v>
@@ -5596,16 +5581,16 @@
     </row>
     <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>112</v>
@@ -5613,13 +5598,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>112</v>
@@ -5627,13 +5612,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>112</v>
@@ -5641,65 +5626,65 @@
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>112</v>
@@ -5707,13 +5692,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>114</v>
@@ -5721,13 +5706,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>114</v>
@@ -5735,13 +5720,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>114</v>
@@ -5749,13 +5734,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>114</v>
@@ -5763,13 +5748,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>112</v>
@@ -5777,30 +5762,30 @@
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D182" s="17"/>
       <c r="E182" s="17"/>
@@ -5828,16 +5813,16 @@
         <v>106</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5865,10 +5850,10 @@
         <v>251</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5924,7 +5909,7 @@
         <v>256</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5958,7 +5943,7 @@
         <v>115</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5975,7 +5960,7 @@
         <v>155</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5994,7 +5979,7 @@
         <v>155</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6002,10 +5987,10 @@
         <v>86</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>114</v>
@@ -6044,10 +6029,10 @@
         <v>86</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>114</v>
@@ -6058,10 +6043,10 @@
         <v>86</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>113</v>
@@ -6072,10 +6057,10 @@
         <v>86</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>114</v>
@@ -6086,10 +6071,10 @@
         <v>86</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>112</v>
@@ -6100,10 +6085,10 @@
         <v>86</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>113</v>
@@ -6114,10 +6099,10 @@
         <v>86</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>112</v>
@@ -6142,13 +6127,13 @@
         <v>86</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>114</v>
@@ -6173,41 +6158,41 @@
         <v>86</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6215,10 +6200,10 @@
         <v>86</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>114</v>
@@ -6229,13 +6214,13 @@
         <v>86</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>687</v>
+        <v>405</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>112</v>
+        <v>406</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6243,10 +6228,10 @@
         <v>86</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>113</v>
@@ -6257,16 +6242,16 @@
         <v>86</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6274,10 +6259,10 @@
         <v>86</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>113</v>
@@ -6344,10 +6329,10 @@
         <v>86</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>113</v>
@@ -6358,10 +6343,10 @@
         <v>86</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>113</v>
@@ -6386,10 +6371,10 @@
         <v>86</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>114</v>
@@ -6400,16 +6385,16 @@
         <v>86</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F223" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6417,16 +6402,16 @@
         <v>86</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F224" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6434,16 +6419,16 @@
         <v>86</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F225" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6451,13 +6436,13 @@
         <v>86</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>113</v>
@@ -6482,16 +6467,16 @@
         <v>86</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6499,10 +6484,10 @@
         <v>86</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>114</v>
@@ -6513,13 +6498,13 @@
         <v>86</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6527,10 +6512,10 @@
         <v>86</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>114</v>
@@ -6541,10 +6526,10 @@
         <v>86</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>114</v>
@@ -6555,13 +6540,13 @@
         <v>86</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6569,13 +6554,13 @@
         <v>86</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6583,13 +6568,13 @@
         <v>86</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>114</v>
@@ -6609,66 +6594,69 @@
         <v>114</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+    <row r="237" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G237" s="17"/>
+    </row>
+    <row r="238" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>689</v>
+        <v>104</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B239" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C239" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D239" s="17"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G239" s="17"/>
-    </row>
-    <row r="240" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>114</v>
@@ -6679,84 +6667,50 @@
         <v>103</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>259</v>
+        <v>413</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F241" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>293</v>
+        <v>662</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>294</v>
+        <v>663</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F242" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E243" s="17"/>
+      <c r="F243" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B245" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="C245" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="E245" s="17"/>
-      <c r="F245" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G245" s="17"/>
+      <c r="G243" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6821,18 +6775,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6853,10 +6807,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6869,18 +6823,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6893,10 +6847,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
